--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H2">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.01683166884561</v>
+        <v>3.684362666666666</v>
       </c>
       <c r="N2">
-        <v>5.01683166884561</v>
+        <v>11.053088</v>
       </c>
       <c r="O2">
-        <v>0.05736962816091977</v>
+        <v>0.0397011572965827</v>
       </c>
       <c r="P2">
-        <v>0.05736962816091977</v>
+        <v>0.03970115729658269</v>
       </c>
       <c r="Q2">
-        <v>25.11261932935616</v>
+        <v>47.78981534013512</v>
       </c>
       <c r="R2">
-        <v>25.11261932935616</v>
+        <v>430.108338061216</v>
       </c>
       <c r="S2">
-        <v>0.02970593439864447</v>
+        <v>0.0289462269655325</v>
       </c>
       <c r="T2">
-        <v>0.02970593439864447</v>
+        <v>0.0289462269655325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H3">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.4306876836169</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
-        <v>82.4306876836169</v>
+        <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="P3">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="Q3">
-        <v>412.6210759094583</v>
+        <v>65.35098638550747</v>
       </c>
       <c r="R3">
-        <v>412.6210759094583</v>
+        <v>588.1588774695672</v>
       </c>
       <c r="S3">
-        <v>0.4880930360830951</v>
+        <v>0.03958300468149445</v>
       </c>
       <c r="T3">
-        <v>0.4880930360830951</v>
+        <v>0.03958300468149446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9432936425815041</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H4">
-        <v>0.9432936425815041</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I4">
-        <v>0.09757658306561887</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J4">
-        <v>0.09757658306561887</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.01683166884561</v>
+        <v>0.09716666666666667</v>
       </c>
       <c r="N4">
-        <v>5.01683166884561</v>
+        <v>0.2915</v>
       </c>
       <c r="O4">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="P4">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="Q4">
-        <v>4.732345419123622</v>
+        <v>1.260347440611111</v>
       </c>
       <c r="R4">
-        <v>4.732345419123622</v>
+        <v>11.3431269655</v>
       </c>
       <c r="S4">
-        <v>0.005597932287687655</v>
+        <v>0.0007633907520190488</v>
       </c>
       <c r="T4">
-        <v>0.005597932287687655</v>
+        <v>0.0007633907520190489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9432936425815041</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H5">
-        <v>0.9432936425815041</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I5">
-        <v>0.09757658306561887</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J5">
-        <v>0.09757658306561887</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.4306876836169</v>
+        <v>83.98262666666666</v>
       </c>
       <c r="N5">
-        <v>82.4306876836169</v>
+        <v>251.94788</v>
       </c>
       <c r="O5">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="P5">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="Q5">
-        <v>77.7563436455773</v>
+        <v>1089.337446742351</v>
       </c>
       <c r="R5">
-        <v>77.7563436455773</v>
+        <v>9804.037020681162</v>
       </c>
       <c r="S5">
-        <v>0.0919786507779312</v>
+        <v>0.6598102284144256</v>
       </c>
       <c r="T5">
-        <v>0.0919786507779312</v>
+        <v>0.6598102284144257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.27155760860455</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H6">
-        <v>1.27155760860455</v>
+        <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.1315330041652444</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J6">
-        <v>0.1315330041652444</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.01683166884561</v>
+        <v>3.684362666666666</v>
       </c>
       <c r="N6">
-        <v>5.01683166884561</v>
+        <v>11.053088</v>
       </c>
       <c r="O6">
-        <v>0.05736962816091977</v>
+        <v>0.0397011572965827</v>
       </c>
       <c r="P6">
-        <v>0.05736962816091977</v>
+        <v>0.03970115729658269</v>
       </c>
       <c r="Q6">
-        <v>6.379190479608897</v>
+        <v>3.860524326968888</v>
       </c>
       <c r="R6">
-        <v>6.379190479608897</v>
+        <v>34.74471894272</v>
       </c>
       <c r="S6">
-        <v>0.007545999539848783</v>
+        <v>0.002338314399816325</v>
       </c>
       <c r="T6">
-        <v>0.007545999539848783</v>
+        <v>0.002338314399816325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.27155760860455</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H7">
-        <v>1.27155760860455</v>
+        <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.1315330041652444</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J7">
-        <v>0.1315330041652444</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.4306876836169</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
-        <v>82.4306876836169</v>
+        <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="P7">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="Q7">
-        <v>104.8153681066084</v>
+        <v>5.279138890515556</v>
       </c>
       <c r="R7">
-        <v>104.8153681066084</v>
+        <v>47.51225001464001</v>
       </c>
       <c r="S7">
-        <v>0.1239870046253956</v>
+        <v>0.003197567335630568</v>
       </c>
       <c r="T7">
-        <v>0.1239870046253956</v>
+        <v>0.003197567335630569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.44668895959327</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H8">
-        <v>2.44668895959327</v>
+        <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.2530914422873971</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J8">
-        <v>0.2530914422873971</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.01683166884561</v>
+        <v>0.09716666666666667</v>
       </c>
       <c r="N8">
-        <v>5.01683166884561</v>
+        <v>0.2915</v>
       </c>
       <c r="O8">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="P8">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="Q8">
-        <v>12.27462665630243</v>
+        <v>0.1018125288888889</v>
       </c>
       <c r="R8">
-        <v>12.27462665630243</v>
+        <v>0.9163127599999999</v>
       </c>
       <c r="S8">
-        <v>0.01451976193473886</v>
+        <v>6.166771200468671E-05</v>
       </c>
       <c r="T8">
-        <v>0.01451976193473886</v>
+        <v>6.166771200468673E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.44668895959327</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H9">
-        <v>2.44668895959327</v>
+        <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.2530914422873971</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J9">
-        <v>0.2530914422873971</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.4306876836169</v>
+        <v>83.98262666666666</v>
       </c>
       <c r="N9">
-        <v>82.4306876836169</v>
+        <v>251.94788</v>
       </c>
       <c r="O9">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="P9">
-        <v>0.9426303718390802</v>
+        <v>0.9049618002155182</v>
       </c>
       <c r="Q9">
-        <v>201.6822534871864</v>
+        <v>87.99811598968888</v>
       </c>
       <c r="R9">
-        <v>201.6822534871864</v>
+        <v>791.9830439072</v>
       </c>
       <c r="S9">
-        <v>0.2385716803526582</v>
+        <v>0.05330034066563077</v>
       </c>
       <c r="T9">
-        <v>0.2385716803526582</v>
+        <v>0.05330034066563078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.312552</v>
+      </c>
+      <c r="H10">
+        <v>3.937656</v>
+      </c>
+      <c r="I10">
+        <v>0.07377892703252469</v>
+      </c>
+      <c r="J10">
+        <v>0.0737789270325247</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>3.684362666666666</v>
+      </c>
+      <c r="N10">
+        <v>11.053088</v>
+      </c>
+      <c r="O10">
+        <v>0.0397011572965827</v>
+      </c>
+      <c r="P10">
+        <v>0.03970115729658269</v>
+      </c>
+      <c r="Q10">
+        <v>4.835917586858666</v>
+      </c>
+      <c r="R10">
+        <v>43.523258281728</v>
+      </c>
+      <c r="S10">
+        <v>0.00292910878729136</v>
+      </c>
+      <c r="T10">
+        <v>0.00292910878729136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.312552</v>
+      </c>
+      <c r="H11">
+        <v>3.937656</v>
+      </c>
+      <c r="I11">
+        <v>0.07377892703252469</v>
+      </c>
+      <c r="J11">
+        <v>0.0737789270325247</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.114731</v>
+      </c>
+      <c r="O11">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="P11">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="Q11">
+        <v>6.612956801170667</v>
+      </c>
+      <c r="R11">
+        <v>59.51661121053601</v>
+      </c>
+      <c r="S11">
+        <v>0.004005459052677869</v>
+      </c>
+      <c r="T11">
+        <v>0.00400545905267787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.312552</v>
+      </c>
+      <c r="H12">
+        <v>3.937656</v>
+      </c>
+      <c r="I12">
+        <v>0.07377892703252469</v>
+      </c>
+      <c r="J12">
+        <v>0.0737789270325247</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.09716666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.2915</v>
+      </c>
+      <c r="O12">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="P12">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="Q12">
+        <v>0.1275363026666667</v>
+      </c>
+      <c r="R12">
+        <v>1.147826724</v>
+      </c>
+      <c r="S12">
+        <v>7.724856723256264E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.724856723256265E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.312552</v>
+      </c>
+      <c r="H13">
+        <v>3.937656</v>
+      </c>
+      <c r="I13">
+        <v>0.07377892703252469</v>
+      </c>
+      <c r="J13">
+        <v>0.0737789270325247</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>83.98262666666666</v>
+      </c>
+      <c r="N13">
+        <v>251.94788</v>
+      </c>
+      <c r="O13">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="P13">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="Q13">
+        <v>110.2315645965867</v>
+      </c>
+      <c r="R13">
+        <v>992.0840813692801</v>
+      </c>
+      <c r="S13">
+        <v>0.0667671106253229</v>
+      </c>
+      <c r="T13">
+        <v>0.06676711062532291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.458986333333333</v>
+      </c>
+      <c r="H14">
+        <v>7.376958999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="J14">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>3.684362666666666</v>
+      </c>
+      <c r="N14">
+        <v>11.053088</v>
+      </c>
+      <c r="O14">
+        <v>0.0397011572965827</v>
+      </c>
+      <c r="P14">
+        <v>0.03970115729658269</v>
+      </c>
+      <c r="Q14">
+        <v>9.059797444376889</v>
+      </c>
+      <c r="R14">
+        <v>81.53817699939198</v>
+      </c>
+      <c r="S14">
+        <v>0.005487507143942508</v>
+      </c>
+      <c r="T14">
+        <v>0.005487507143942508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.458986333333333</v>
+      </c>
+      <c r="H15">
+        <v>7.376958999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="J15">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N15">
+        <v>15.114731</v>
+      </c>
+      <c r="O15">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="P15">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="Q15">
+        <v>12.38897232033656</v>
+      </c>
+      <c r="R15">
+        <v>111.500750883029</v>
+      </c>
+      <c r="S15">
+        <v>0.007503983894932284</v>
+      </c>
+      <c r="T15">
+        <v>0.007503983894932286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.458986333333333</v>
+      </c>
+      <c r="H16">
+        <v>7.376958999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="J16">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09716666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.2915</v>
+      </c>
+      <c r="O16">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="P16">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="Q16">
+        <v>0.2389315053888889</v>
+      </c>
+      <c r="R16">
+        <v>2.1503835485</v>
+      </c>
+      <c r="S16">
+        <v>0.0001447204919077131</v>
+      </c>
+      <c r="T16">
+        <v>0.0001447204919077131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.458986333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.376958999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="J17">
+        <v>0.1382203320409214</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>83.98262666666666</v>
+      </c>
+      <c r="N17">
+        <v>251.94788</v>
+      </c>
+      <c r="O17">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="P17">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="Q17">
+        <v>206.5121312107689</v>
+      </c>
+      <c r="R17">
+        <v>1858.60918089692</v>
+      </c>
+      <c r="S17">
+        <v>0.1250841205101389</v>
+      </c>
+      <c r="T17">
+        <v>0.1250841205101389</v>
       </c>
     </row>
   </sheetData>
